--- a/spreadsheet/macrofree/azure_arc_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.ko.xlsx
@@ -1246,12 +1246,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버에 대한 태그 지정 계층이 정의되었습니다.</t>
+          <t>Azure Arc 지원 서버에 대한 태그 지정 전략이 정의되었습니까?</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">기존 항목과 일치하거나 Azure 태그 지정 시작을 만드는 것이 좋습니다. 리소스 태그를 사용하면 신속하게 찾고 운영 작업을 자동화할 수 있습니다. </t>
+          <t xml:space="preserve">기존 항목에 맞추거나 Azure 태그 지정 전략을 만드는 것이 좋습니다. 리소스 태그를 사용하면 신속하게 찾고 운영 작업을 자동화할 수 있습니다. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>서버 관리에 필요한 대로 서버/리소스 그룹에 대한 RBAC 규칙을 정의하면 'Azure 연결된 컴퓨터 리소스 관리자' 또는 '하이브리드 서버 리소스 관리자' 역할이 Azure에서 Azure Arc 지원 서버 리소스를 관리하는 데 충분합니다.</t>
+          <t>서버 관리에 필요한 대로 서버/리소스 그룹에 대한 RBAC 규칙을 정의하면 'Azure 연결된 컴퓨터 리소스 관리자' 또는 '하이브리드 서버 리소스 관리자' 역할만으로도 Azure에서 Azure Arc 지원 서버 리소스를 관리하는 데 충분합니다.</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>최소한의 특권을 사용하십시오.</t>
+          <t>최소 권한 원칙 사용</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1738,12 +1738,12 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Arc 지원 서버를 Azure에 온보딩하는 데 필요한 서비스 기본 서비스 수</t>
+          <t>Arc 지원 서버를 Azure에 온보딩하는 데 필요한 서비스 주체 수</t>
         </is>
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>서버의 대규모 온보딩에는 'Azure 연결된 컴퓨터 온보딩' 역할이 있는 서비스 원칙이 필요하며, 다른 팀/분산 관리에서 온보딩을 수행하는 경우 더 많은 SP를 고려합니다.</t>
+          <t>서버의 대규모 온보딩에는 'Azure 연결된 컴퓨터 온보딩' 역할이 있는 서비스 원칙이 필요하며, 다른 팀/분산된 관리에서 온보딩을 수행하는 경우 더 많은 SP를 고려합니다.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>에이전트 프로비저닝에 대한 전략 정의</t>
+          <t>에이전트 프로비저닝을 위한 전략 정의</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
@@ -1888,7 +1888,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>에이전트 업데이트에 대한 전략 정의</t>
+          <t>에이전트 업데이트 전략 정의</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Azure 자동화 또는 새로운 업데이트 관리 센터(미리 보기) 기능에서 업데이트 관리를 사용하여 서버의 업데이트 관리 보장</t>
+          <t>Azure 자동화의 업데이트 관리 또는 새로운 업데이트 관리 센터(미리 보기) 기능을 사용하여 서버의 업데이트 관리 보장</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2368,7 +2368,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>연결된 컴퓨터 에이전트는 기본적으로 HTTPS(TCP 포트 443)를 사용하여 공용 인터렛 연결을 통해 Azure 서비스와 통신합니다.</t>
+          <t>연결된 컴퓨터 에이전트는 기본적으로 HTTPS(TCP 포트 443)를 사용하여 공용 인터넷 연결을 통해 Azure 서비스와 통신합니다.</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2568,7 +2568,7 @@
       </c>
       <c r="D38" s="21" t="inlineStr">
         <is>
-          <t>해당 시스템에 사용 가능한 자동화 도구를 사용하여 Azure 엔드포인트를 다시 업데이트합니다.</t>
+          <t>해당 시스템에 사용 가능한 자동화 도구를 사용하여 Azure 엔드포인트를 정기적으로 업데이트합니다.</t>
         </is>
       </c>
       <c r="E38" s="21" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="D40" s="21" t="inlineStr">
         <is>
-          <t>모든 확장(예: 로그 분석 등)에는 별도의 네트워크 요구 사항이 있으므로 네트워크 설계에 모두 포함해야 합니다.</t>
+          <t>모든 확장(예: 로그 분석 등)에는 별도의 네트워크 요구 사항이 있으므로 네트워크 디자인에 모두 포함해야 합니다.</t>
         </is>
       </c>
       <c r="E40" s="21" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 하이브리드 연결된 서버에 대한 정부 모델 구현</t>
+          <t>Azure Policy를 사용하여 하이브리드 연결된 서버에 대한 거버넌스 모델 구현</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>서버에서 수행된 변경 내용을 추적하기 위해 변경 내용 추적을 사용하는 Cosider</t>
+          <t>변경 내용 추적을 사용하여 서버의 변경 내용 추적 고려</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>보안</t>
+          <t>안전</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">

--- a/spreadsheet/macrofree/azure_arc_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/azure_arc_checklist.ko.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1109,7 +1074,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버 리소스 배치를 위한 리소스 그룹 구조 정의</t>
+          <t>Azure Arc 지원 서버 리소스의 배치를 위한 리소스 그룹 구조 정의Define a resource group structure for placement of Azure Arc-enabled servers resources</t>
         </is>
       </c>
       <c r="E8" s="21" t="inlineStr">
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory 개체 제한 사항 고려</t>
+          <t>Azure Active Directory 개체 제한 사항을 고려합니다</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1201,7 +1166,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>다음 리소스 공급자를 등록해야 합니다: Microsoft.HybridCompute, Microsoft.GuestConfiguration, Microsoft.HybridConnectivity</t>
+          <t>Microsoft.HybridCompute, Microsoft.GuestConfiguration, Microsoft.HybridConnectivity 리소스 공급자를 등록해야 합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="inlineStr">
@@ -1246,12 +1211,12 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버에 대한 태그 지정 전략이 정의되었습니까?</t>
+          <t>Azure Arc 지원 서버에 대한 태그 지정 전략이 정의되어 있습니까?</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">기존 항목에 맞추거나 Azure 태그 지정 전략을 만드는 것이 좋습니다. 리소스 태그를 사용하면 신속하게 찾고 운영 작업을 자동화할 수 있습니다. </t>
+          <t xml:space="preserve">기존 전략에 맞추거나 Azure 태그 지정 전략을 만드는 것이 좋습니다. 리소스 태그를 사용하면 빠르게 찾고 운영 작업을 자동화할 수 있습니다. </t>
         </is>
       </c>
       <c r="E11" s="21" t="inlineStr">
@@ -1301,7 +1266,7 @@
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>연결된 컴퓨터 에이전트의 설치는 대부분의 최신 Windows 및 Linux 운영 체제에서 지원되며 최신 목록에 대한 링크를 검토하십시오.</t>
+          <t>연결된 컴퓨터 에이전트의 설치는 대부분의 최신 Windows 및 Linux 운영 체제에서 지원됩니다. 최신 목록에 대한 링크를 검토하십시오.</t>
         </is>
       </c>
       <c r="E12" s="21" t="inlineStr">
@@ -1346,12 +1311,12 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>설치를 지원하기 위해 Windows 및 Linux 서버에 설치된 소프트웨어가 필요합니다.</t>
+          <t>설치를 지원하기 위해 Windows 및 Linux 서버에 설치된 필수 소프트웨어입니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>에이전트 설치에 대한 소프트웨어 요구 사항이 있습니다. 일부는 설치 후 시스템 재부팅이 필요할 수 있습니다.</t>
+          <t>에이전트 설치에 대한 소프트웨어 요구 사항이 있습니다. 일부는 설치 후 시스템 재부팅이 필요할 수 있으므로 링크를 검토하십시오.</t>
         </is>
       </c>
       <c r="E13" s="21" t="inlineStr">
@@ -1442,12 +1407,12 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Azure 리소스 관리를 위한 구조 정의</t>
+          <t>Azure 리소스 관리를 위한 구조 정의Define the structure for Azure management of resources</t>
         </is>
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>범위에는 관리 그룹, 구독 및 리소스 그룹으로 구성된 조직이 포함됩니다.</t>
+          <t>범위에는 관리 그룹, 구독 및 리소스 그룹에 대한 조직이 포함됩니다.</t>
         </is>
       </c>
       <c r="E15" s="21" t="inlineStr">
@@ -1497,7 +1462,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>서버 관리에 필요한 대로 서버/리소스 그룹에 대한 RBAC 규칙을 정의하면 'Azure 연결된 컴퓨터 리소스 관리자' 또는 '하이브리드 서버 리소스 관리자' 역할만으로도 Azure에서 Azure Arc 지원 서버 리소스를 관리하는 데 충분합니다.</t>
+          <t>서버 관리에 필요한 대로 서버/리소스 그룹에 RBAC 규칙을 정의하면 'Azure Connected Machine 리소스 관리자' 또는 '하이브리드 서버 리소스 관리자' 역할은 Azure에서 Azure Arc 지원 서버 리소스를 관리하는 데 충분합니다</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1542,7 +1507,7 @@
       </c>
       <c r="C17" s="21" t="inlineStr">
         <is>
-          <t>애플리케이션에 관리 ID를 사용하여 링크의 Key Vault 예제와 같은 Azure 리소스에 액세스하는 것이 좋습니다.</t>
+          <t>애플리케이션에 관리 ID를 사용하여 Azure 리소스에 액세스하는 것이 좋습니다(예: 링크의 Key Vault 예제).</t>
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
@@ -1588,12 +1553,12 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>Azure Active Directory 테넌트는 하나 이상의 구독에서 사용할 수 있어야 합니다.</t>
+          <t>Azure Active Directory 테넌트는 하나 이상의 구독에서 사용할 수 있어야 합니다</t>
         </is>
       </c>
       <c r="D18" s="21" t="inlineStr">
         <is>
-          <t>Azure 구독은 동일한 Azure AD 테넌트에 대한 부모가 되어야 합니다.</t>
+          <t>Azure 구독은 동일한 Azure AD 테넌트의 부모여야 합니다.</t>
         </is>
       </c>
       <c r="E18" s="21" t="inlineStr">
@@ -1643,7 +1608,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>사용자(또는 SP)는 서버 온보딩에 'Azure 연결된 컴퓨터 온보딩' 또는 '참가자' 역할이 필요합니다.</t>
+          <t>사용자(또는 SP)는 서버 온보딩에 'Azure Connected Machine 온보딩' 또는 '기여자' 역할이 필요합니다.</t>
         </is>
       </c>
       <c r="E19" s="21" t="inlineStr">
@@ -1693,7 +1658,7 @@
       </c>
       <c r="D20" s="21" t="inlineStr">
         <is>
-          <t>역할을 수행하는 데 필요한 사용자 또는 그룹에만 권한을 추가해야 합니다.</t>
+          <t>해당 역할을 수행하는 데 필요한 사용자 또는 그룹에만 권한을 추가해야 합니다</t>
         </is>
       </c>
       <c r="E20" s="21" t="inlineStr">
@@ -1743,7 +1708,7 @@
       </c>
       <c r="D21" s="21" t="inlineStr">
         <is>
-          <t>서버의 대규모 온보딩에는 'Azure 연결된 컴퓨터 온보딩' 역할이 있는 서비스 원칙이 필요하며, 다른 팀/분산된 관리에서 온보딩을 수행하는 경우 더 많은 SP를 고려합니다.</t>
+          <t>서버의 대규모 온보딩에는 'Azure Connected Machine 온보딩' 역할이 있는 서비스 원칙이 필요하며, 온보딩이 다른 팀/분산된 관리에서 수행되는 경우 더 많은 SP를 고려합니다.</t>
         </is>
       </c>
       <c r="E21" s="21" t="inlineStr">
@@ -1788,12 +1753,12 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버를 온보딩할 수 있는 권한을 원하는 리소스 그룹으로 제한</t>
+          <t>Azure Arc 지원 서버를 원하는 리소스 그룹에 온보딩할 수 있는 권한을 제한합니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>리소스 그룹 수준에서 'Azure 연결된 컴퓨터 온보딩' 역할에 대한 권한을 할당하여 리소스 만들기를 제어하는 것이 좋습니다.</t>
+          <t>리소스 그룹 수준에서 'Azure Connected Machine Onboarding' 역할에 대한 권한을 할당하여 리소스 생성을 제어하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="E22" s="21" t="inlineStr">
@@ -1838,12 +1803,12 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>에이전트 프로비저닝을 위한 전략 정의</t>
+          <t>에이전트 프로비저닝에 대한 전략 정의Define a strategy for agent provisioning</t>
         </is>
       </c>
       <c r="D23" s="21" t="inlineStr">
         <is>
-          <t>대규모 에이전트 배포 계획</t>
+          <t>규모에 맞는 에이전트 배포 계획Plan for agent deployments at scale</t>
         </is>
       </c>
       <c r="E23" s="21" t="inlineStr">
@@ -1888,12 +1853,12 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>에이전트 업데이트 전략 정의</t>
+          <t>에이전트 업데이트에 대한 전략 정의</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
         <is>
-          <t>Microsoft 업데이트를 사용하여 연결된 컴퓨터 에이전트가 항상 최신 상태인지 확인</t>
+          <t>Microsoft 업데이트를 사용하여 연결된 컴퓨터 에이전트가 항상 최신 상태인지 확인합니다.</t>
         </is>
       </c>
       <c r="E24" s="21" t="inlineStr">
@@ -1938,12 +1903,12 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>확장 설치 전략 정의</t>
+          <t>확장 설치에 대한 전략 정의</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>Azure 정책 또는 Azure DevOps와 같은 다른 자동화 도구를 사용하는 것이 좋습니다 - 중요한 것은 구성 드리프트를 방지하는 것입니다.</t>
+          <t>Azure Policy 또는 Azure DevOps와 같은 다른 자동화 도구를 사용하는 것이 좋으며, 구성 드리프트를 방지하는 것이 중요합니다.</t>
         </is>
       </c>
       <c r="E25" s="21" t="inlineStr">
@@ -1988,7 +1953,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>확장 업데이트 전략 정의</t>
+          <t>확장 업데이트에 대한 전략 정의</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -2038,12 +2003,12 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Azure 자동 관리를 사용하여 설정을 제어하고 서버의 구성 드리프트를 방지하는 것이 좋습니다.</t>
+          <t>Azure Machine Configuration을 사용하여 설정을 제어하고 서버에서 구성 드리프트를 방지하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>Azure 자동 관리는 Azure에서 서버 관리를 위한 Microsoft 모범 사례를 구현하는 데 도움이 됩니다.</t>
+          <t>Azure에서 서버 관리에 대한 Microsoft 모범 사례를 구현하는 데 도움이 되는 Azure Machine Configuration</t>
         </is>
       </c>
       <c r="E27" s="21" t="inlineStr">
@@ -2059,7 +2024,7 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/automanage/automanage-arc</t>
+          <t>https://learn.microsoft.com/azure/governance/machine-configuration/overview</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
@@ -2132,7 +2097,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>메트릭 및 로그를 Log Analytics 작업 영역으로 보내는 모니터링 전략 설계</t>
+          <t>메트릭 및 로그를 Log Analytics 작업 영역으로 보내도록 모니터링 전략 설계Design a monitoring strategy to send metrics and logs to an Log Analytics workspace</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2177,7 +2142,7 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>활동 로그의 알림을 사용하여 리소스의 예기치 않은 변경 내용에 대한 알림 받기</t>
+          <t>활동 로그의 알림을 사용하여 리소스에 대한 예기치 않은 변경에 대한 알림을 받습니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
@@ -2222,7 +2187,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>규정 준수 및 운영 모니터링을 위해 Azure 모니터 사용</t>
+          <t>규정 준수 및 운영 모니터링에 Azure Monitor 사용</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2267,7 +2232,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>최신 버전의 Azure 연결된 컴퓨터 에이전트를 사용하지 않는 Azure Arc 지원 서버를 식별하는 경고 만들기</t>
+          <t>최신 버전의 Azure Connected Machine 에이전트를 사용하지 않는 Azure Arc 지원 서버를 식별하는 경고를 만듭니다.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2318,7 +2283,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>Azure 자동화의 업데이트 관리 또는 새로운 업데이트 관리 센터(미리 보기) 기능을 사용하여 서버의 업데이트 관리 보장</t>
+          <t>Azure Update Manager를 사용하여 Azure Arc 지원 서버에서 대규모로 업데이트를 관리하고 예약합니다</t>
         </is>
       </c>
       <c r="E33" s="21" t="inlineStr">
@@ -2334,7 +2299,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/cloud-adoption-framework/manage/hybrid/server/best-practices/arc-update-management</t>
+          <t>https://learn.microsoft.com/azure/update-manager/scheduled-patching?tabs=schedule-updates-single-machine%2Cschedule-updates-scale-overview%2Cwindows-maintenance</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2368,7 +2333,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>연결된 컴퓨터 에이전트는 기본적으로 HTTPS(TCP 포트 443)를 사용하여 공용 인터넷 연결을 통해 Azure 서비스와 통신합니다.</t>
+          <t>Connected Machine Agent는 기본적으로 HTTPS(TCP 포트 443)를 사용하여 공용 인터넷 연결을 통해 Azure 서비스와 통신합니다</t>
         </is>
       </c>
       <c r="E34" s="21" t="inlineStr">
@@ -2413,12 +2378,12 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>공용 인터넷을 통한 통신에 필요한 프록시 서버입니까?</t>
+          <t>프록시 서버는 공용 인터넷을 통한 통신에 필요합니까?</t>
         </is>
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>연결된 컴퓨터 에이전트는 프록시 서버를 사용하도록 구성할 수 있으므로 로컬 시스템에서 'azcmagent config set proxy.url' 명령을 사용하여 프록시 서버 주소를 정의하는 것이 좋습니다.</t>
+          <t>Connected Machine Agent는 프록시 서버를 사용하도록 구성할 수 있으며, 로컬 시스템에서 'azcmagent config set proxy.url' 명령을 사용하여 프록시 서버 주소를 정의하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E35" s="21" t="inlineStr">
@@ -2463,12 +2428,12 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>사설(공용 인터넷 아님) 연결이 필요합니까?</t>
+          <t>개인(공용 인터넷 아님) 연결이 필요합니까?</t>
         </is>
       </c>
       <c r="D36" s="21" t="inlineStr">
         <is>
-          <t>연결된 컴퓨터 에이전트는 기존 Express 경로 또는 VPN 연결을 통해 Azure 서비스와 통신하기 위해 프라이빗 링크를 사용할 수 있습니다.</t>
+          <t>Connected Machine Agent는 기존 ExpressRoute 또는 VPN 연결을 통해 Azure 서비스와 통신하기 위해 Private Link를 사용할 수 있습니다</t>
         </is>
       </c>
       <c r="E36" s="21" t="inlineStr">
@@ -2518,7 +2483,7 @@
       </c>
       <c r="D37" s="21" t="inlineStr">
         <is>
-          <t>에이전트가 Azure와 통신하려면 방화벽 구성이 필요할 수 있으며, 링크를 사용하여 서비스 태그 및/또는 URL이 필요한지 확인합니다.</t>
+          <t>에이전트가 Azure와 통신하려면 방화벽 구성이 필요할 수 있으며, 링크를 사용하여 ServiceTags 및/또는 URL이 필요한지 확인합니다.</t>
         </is>
       </c>
       <c r="E37" s="21" t="inlineStr">
@@ -2613,7 +2578,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>가능한 경우 항상 Azure에 보안 통신 사용</t>
+          <t>가능한 경우 항상 Azure에 대한 보안 통신을 사용합니다.</t>
         </is>
       </c>
       <c r="D39" s="21" t="inlineStr">
@@ -2713,7 +2678,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Azure Policy를 사용하여 하이브리드 연결된 서버에 대한 거버넌스 모델 구현</t>
+          <t>Azure Policy를 사용하여 하이브리드 연결 서버에 대한 거버넌스 모델 구현</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2759,7 +2724,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>게스트 OS 구성에서 컴퓨터 구성 사용 고려</t>
+          <t>게스트 OS 구성에 대해 컴퓨터 구성을 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2851,7 +2816,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>변경 내용 추적을 사용하여 서버의 변경 내용 추적 고려</t>
+          <t>변경 내용 추적을 사용하여 서버에서 수행된 변경 내용을 추적하는 것이 좋습니다</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2897,7 +2862,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>조직에서 승인한 메타데이터를 저장하기 위해 Azure 지역을 사용해야 합니다.</t>
+          <t>조직에서 승인한 메타데이터를 저장하기 위해 Azure 지역을 사용해야 합니다</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2942,7 +2907,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>서버에서 인증서 관리를 위해 Azure 키 자격 증명 모음 사용</t>
+          <t>서버에서 인증서 관리에 Azure Key Vault 사용</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2988,12 +2953,12 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>SP가 사용하는 비밀의 허용 가능한 수명은 얼마입니까?</t>
+          <t>SP에서 사용하는 비밀의 허용 가능한 수명은 얼마입니까?</t>
         </is>
       </c>
       <c r="D47" s="21" t="inlineStr">
         <is>
-          <t>수명이 짧은 Azure AD 서비스 주체 클라이언트 비밀을 사용하는 것이 좋습니다.</t>
+          <t>수명이 짧은 Azure AD 서비스 주체 클라이언트 암호를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="E47" s="21" t="inlineStr">
@@ -3038,12 +3003,12 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>Azure Arc 지원 서버에 대한 공개 키 보안</t>
+          <t>Azure Arc 지원 서버에 대한 공개 키 보호</t>
         </is>
       </c>
       <c r="D48" s="21" t="inlineStr">
         <is>
-          <t>개인 키가 디스크에 저장되므로 디스크 암호화를 사용하여 보호되는지 확인하십시오.</t>
+          <t>개인 키는 디스크에 저장되므로 디스크 암호화를 사용하여 보호되는지 확인합니다.</t>
         </is>
       </c>
       <c r="E48" s="21" t="inlineStr">
@@ -3087,12 +3052,12 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>에이전트 설치를 실행하기 위한 로컬 관리자 액세스 권한이 있는지 확인</t>
+          <t>에이전트 설치를 실행하기 위한 로컬 관리자 액세스 권한이 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="D49" s="21" t="inlineStr">
         <is>
-          <t>로컬 관리자는 Windows 및 Linux 시스템에 연결된 컴퓨터 에이전트를 설치해야 합니다.</t>
+          <t>Windows 및 Linux 시스템에 Connected Machine Agent를 설치하려면 로컬 관리자가 필요합니다.</t>
         </is>
       </c>
       <c r="E49" s="21" t="inlineStr">
@@ -3141,7 +3106,7 @@
       </c>
       <c r="D50" s="21" t="inlineStr">
         <is>
-          <t>Windows의 로컬 관리자 그룹 구성원과 Linux의 루트 권한이 있는 사용자는 명령줄을 통해 에이전트를 관리할 수 있는 권한이 있습니다.</t>
+          <t>Windows에서 로컬 관리자 그룹의 구성원과 Linux에서 루트 권한이 있는 사용자는 명령줄을 통해 에이전트를 관리할 수 있는 권한이 있습니다.</t>
         </is>
       </c>
       <c r="E50" s="21" t="inlineStr">
@@ -3282,7 +3247,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>보안 구성 오류를 감지하고 규정 준수를 추적하는 제어 정의</t>
+          <t>보안 구성 오류를 감지하고 규정 준수를 추적하기 위한 제어 정의</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3323,7 +3288,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>허용 또는 차단 목록을 사용하여 Azure Arc 지원 서버에 설치할 수 있는 확장 제어</t>
+          <t>허용 목록 또는 차단 목록을 사용하여 Azure Arc 지원 서버에 설치할 수 있는 확장을 제어합니다</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -7193,20 +7158,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -7216,121 +7279,6 @@
         <cfvo type="max"/>
         <color rgb="FF63C384"/>
       </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -7440,7 +7388,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>이 검사는 아직 검토되지 않았습니다.</t>
+          <t>이 검사는 아직 검토되지 않았습니다</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -7467,7 +7415,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>이 검사와 연결된 작업 항목이 있습니다.</t>
+          <t>이 검사와 연관된 작업 항목이 있습니다</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -7494,7 +7442,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>이 검사가 확인되었으며 연결된 추가 작업 항목이 없습니다.</t>
+          <t>이 검사는 확인되었으며 이와 관련된 추가 작업 항목이 없습니다</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -7506,7 +7454,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7516,7 +7464,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에서 필요하지 않음</t>
+          <t>권장 사항을 이해했지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7538,7 +7486,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>현재 디자인에는 적용되지 않음</t>
+          <t>현재 설계에는 적용되지 않습니다.</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
